--- a/diseño logico tp 5_a.xlsx
+++ b/diseño logico tp 5_a.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\juan\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\juan\Desktop\Diseño Logico TP 2024C2\tp-diseno-logico-untref\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{659B3A70-8561-4929-8756-D6044403C6B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50A456C0-294A-411D-87A7-2972187F711F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{D3ABE8AE-D46A-43B4-A781-EDA0166F7B18}"/>
   </bookViews>
@@ -113,65 +113,65 @@
     <t>out r14</t>
   </si>
   <si>
-    <t>N° 1</t>
-  </si>
-  <si>
-    <t>N° 2</t>
-  </si>
-  <si>
-    <t>N° 3</t>
-  </si>
-  <si>
-    <t>N° 4</t>
-  </si>
-  <si>
-    <t>N° 5</t>
-  </si>
-  <si>
-    <t>N° 6</t>
-  </si>
-  <si>
-    <t>N° 7</t>
-  </si>
-  <si>
-    <t>N° 8</t>
-  </si>
-  <si>
-    <t>N° 9</t>
-  </si>
-  <si>
-    <t>N° 10</t>
-  </si>
-  <si>
-    <t>N° 11</t>
-  </si>
-  <si>
-    <t>N° 12</t>
-  </si>
-  <si>
-    <t>N° 13</t>
-  </si>
-  <si>
-    <t>N° 14</t>
-  </si>
-  <si>
-    <t>N° 15</t>
-  </si>
-  <si>
-    <t>Instrucción</t>
-  </si>
-  <si>
     <t>Inicializacion</t>
   </si>
   <si>
-    <t>N° 0</t>
+    <t>0x053</t>
+  </si>
+  <si>
+    <t>0x1010</t>
+  </si>
+  <si>
+    <t>0x055</t>
+  </si>
+  <si>
+    <t>0x1021</t>
+  </si>
+  <si>
+    <t>0x1132</t>
+  </si>
+  <si>
+    <t>0x1241</t>
+  </si>
+  <si>
+    <t>0x1451</t>
+  </si>
+  <si>
+    <t>0x1371</t>
+  </si>
+  <si>
+    <t>0x03E3</t>
+  </si>
+  <si>
+    <t>0x022</t>
+  </si>
+  <si>
+    <t>0x023</t>
+  </si>
+  <si>
+    <t>0x024</t>
+  </si>
+  <si>
+    <t>0x025</t>
+  </si>
+  <si>
+    <t>0x027</t>
+  </si>
+  <si>
+    <t>0x02E</t>
+  </si>
+  <si>
+    <t>codigo hexa</t>
+  </si>
+  <si>
+    <t>instrucción</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -185,8 +185,24 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -199,8 +215,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="9">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -278,17 +306,12 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
+      <right style="thin">
         <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -301,25 +324,13 @@
   <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -331,6 +342,22 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -665,15 +692,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5547B6D6-4E42-4F9E-944C-56B0C60D5AFD}">
-  <dimension ref="A1:L17"/>
+  <dimension ref="A1:W17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.85546875" style="1" customWidth="1"/>
     <col min="2" max="2" width="13.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="9" width="2.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="3.7109375" style="1" bestFit="1" customWidth="1"/>
@@ -720,653 +747,813 @@
     <col min="57" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="3" t="s">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A1" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="3" t="s">
+      <c r="F1" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="L1" s="11" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C2" s="6">
-        <v>0</v>
-      </c>
-      <c r="D2" s="6">
-        <v>0</v>
-      </c>
-      <c r="E2" s="6">
-        <v>0</v>
-      </c>
-      <c r="F2" s="6">
-        <v>0</v>
-      </c>
-      <c r="G2" s="6">
-        <v>0</v>
-      </c>
-      <c r="H2" s="6">
-        <v>0</v>
-      </c>
-      <c r="I2" s="6">
-        <v>0</v>
-      </c>
-      <c r="J2" s="6">
-        <v>0</v>
-      </c>
-      <c r="K2" s="6">
-        <v>0</v>
-      </c>
-      <c r="L2" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B2" s="9"/>
+      <c r="C2" s="13">
+        <v>0</v>
+      </c>
+      <c r="D2" s="13">
+        <v>0</v>
+      </c>
+      <c r="E2" s="13">
+        <v>0</v>
+      </c>
+      <c r="F2" s="13">
+        <v>0</v>
+      </c>
+      <c r="G2" s="13">
+        <v>0</v>
+      </c>
+      <c r="H2" s="13">
+        <v>0</v>
+      </c>
+      <c r="I2" s="13">
+        <v>0</v>
+      </c>
+      <c r="J2" s="13">
+        <v>0</v>
+      </c>
+      <c r="K2" s="13">
+        <v>0</v>
+      </c>
+      <c r="L2" s="13">
+        <v>0</v>
+      </c>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
+      <c r="S2" s="2"/>
+      <c r="T2" s="2"/>
+      <c r="U2" s="2"/>
+      <c r="V2" s="2"/>
+      <c r="W2" s="3"/>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A3" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="6">
-        <v>0</v>
-      </c>
-      <c r="D3" s="6">
-        <v>0</v>
-      </c>
-      <c r="E3" s="6">
-        <v>0</v>
-      </c>
-      <c r="F3" s="6">
-        <v>0</v>
-      </c>
-      <c r="G3" s="6">
-        <v>0</v>
-      </c>
-      <c r="H3" s="6">
-        <v>0</v>
-      </c>
-      <c r="I3" s="6">
-        <v>0</v>
-      </c>
-      <c r="J3" s="6">
-        <v>0</v>
-      </c>
-      <c r="K3" s="13">
-        <v>3</v>
-      </c>
-      <c r="L3" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B4" s="2" t="s">
+      <c r="C3" s="13">
+        <v>0</v>
+      </c>
+      <c r="D3" s="13">
+        <v>0</v>
+      </c>
+      <c r="E3" s="13">
+        <v>0</v>
+      </c>
+      <c r="F3" s="13">
+        <v>0</v>
+      </c>
+      <c r="G3" s="13">
+        <v>0</v>
+      </c>
+      <c r="H3" s="13">
+        <v>0</v>
+      </c>
+      <c r="I3" s="13">
+        <v>0</v>
+      </c>
+      <c r="J3" s="13">
+        <v>0</v>
+      </c>
+      <c r="K3" s="14">
+        <v>3</v>
+      </c>
+      <c r="L3" s="13">
+        <v>0</v>
+      </c>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2"/>
+      <c r="Q3" s="2"/>
+      <c r="R3" s="2"/>
+      <c r="S3" s="2"/>
+      <c r="T3" s="2"/>
+      <c r="U3" s="2"/>
+      <c r="V3" s="5"/>
+      <c r="W3" s="3"/>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A4" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="13">
-        <v>0</v>
-      </c>
-      <c r="D4" s="13">
-        <v>3</v>
-      </c>
-      <c r="E4" s="6">
-        <v>0</v>
-      </c>
-      <c r="F4" s="6">
-        <v>0</v>
-      </c>
-      <c r="G4" s="6">
-        <v>0</v>
-      </c>
-      <c r="H4" s="6">
-        <v>0</v>
-      </c>
-      <c r="I4" s="6">
-        <v>0</v>
-      </c>
-      <c r="J4" s="6">
-        <v>0</v>
-      </c>
-      <c r="K4" s="13">
-        <v>3</v>
-      </c>
-      <c r="L4" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B5" s="2" t="s">
+      <c r="C4" s="14">
+        <v>0</v>
+      </c>
+      <c r="D4" s="14">
+        <v>3</v>
+      </c>
+      <c r="E4" s="13">
+        <v>0</v>
+      </c>
+      <c r="F4" s="13">
+        <v>0</v>
+      </c>
+      <c r="G4" s="13">
+        <v>0</v>
+      </c>
+      <c r="H4" s="13">
+        <v>0</v>
+      </c>
+      <c r="I4" s="13">
+        <v>0</v>
+      </c>
+      <c r="J4" s="13">
+        <v>0</v>
+      </c>
+      <c r="K4" s="14">
+        <v>3</v>
+      </c>
+      <c r="L4" s="13">
+        <v>0</v>
+      </c>
+      <c r="N4" s="5"/>
+      <c r="O4" s="5"/>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="2"/>
+      <c r="R4" s="2"/>
+      <c r="S4" s="2"/>
+      <c r="T4" s="2"/>
+      <c r="U4" s="2"/>
+      <c r="V4" s="5"/>
+      <c r="W4" s="3"/>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A5" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="6">
-        <v>0</v>
-      </c>
-      <c r="D5" s="6">
-        <v>3</v>
-      </c>
-      <c r="E5" s="6">
-        <v>0</v>
-      </c>
-      <c r="F5" s="6">
-        <v>0</v>
-      </c>
-      <c r="G5" s="6">
-        <v>0</v>
-      </c>
-      <c r="H5" s="6">
-        <v>0</v>
-      </c>
-      <c r="I5" s="6">
-        <v>0</v>
-      </c>
-      <c r="J5" s="6">
-        <v>0</v>
-      </c>
-      <c r="K5" s="13">
+      <c r="C5" s="13">
+        <v>0</v>
+      </c>
+      <c r="D5" s="13">
+        <v>3</v>
+      </c>
+      <c r="E5" s="13">
+        <v>0</v>
+      </c>
+      <c r="F5" s="13">
+        <v>0</v>
+      </c>
+      <c r="G5" s="13">
+        <v>0</v>
+      </c>
+      <c r="H5" s="13">
+        <v>0</v>
+      </c>
+      <c r="I5" s="13">
+        <v>0</v>
+      </c>
+      <c r="J5" s="13">
+        <v>0</v>
+      </c>
+      <c r="K5" s="14">
         <v>5</v>
       </c>
-      <c r="L5" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="B6" s="2" t="s">
+      <c r="L5" s="13">
+        <v>0</v>
+      </c>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="2"/>
+      <c r="Q5" s="2"/>
+      <c r="R5" s="2"/>
+      <c r="S5" s="2"/>
+      <c r="T5" s="2"/>
+      <c r="U5" s="2"/>
+      <c r="V5" s="5"/>
+      <c r="W5" s="3"/>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A6" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="6">
-        <v>0</v>
-      </c>
-      <c r="D6" s="13">
-        <v>3</v>
-      </c>
-      <c r="E6" s="13">
+      <c r="C6" s="13">
+        <v>0</v>
+      </c>
+      <c r="D6" s="14">
+        <v>3</v>
+      </c>
+      <c r="E6" s="14">
         <v>8</v>
       </c>
-      <c r="F6" s="6">
-        <v>0</v>
-      </c>
-      <c r="G6" s="6">
-        <v>0</v>
-      </c>
-      <c r="H6" s="6">
-        <v>0</v>
-      </c>
-      <c r="I6" s="6">
-        <v>0</v>
-      </c>
-      <c r="J6" s="6">
-        <v>0</v>
-      </c>
-      <c r="K6" s="13">
+      <c r="F6" s="13">
+        <v>0</v>
+      </c>
+      <c r="G6" s="13">
+        <v>0</v>
+      </c>
+      <c r="H6" s="13">
+        <v>0</v>
+      </c>
+      <c r="I6" s="13">
+        <v>0</v>
+      </c>
+      <c r="J6" s="13">
+        <v>0</v>
+      </c>
+      <c r="K6" s="14">
         <v>5</v>
       </c>
-      <c r="L6" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="B7" s="2" t="s">
+      <c r="L6" s="13">
+        <v>0</v>
+      </c>
+      <c r="N6" s="2"/>
+      <c r="O6" s="5"/>
+      <c r="P6" s="5"/>
+      <c r="Q6" s="2"/>
+      <c r="R6" s="2"/>
+      <c r="S6" s="2"/>
+      <c r="T6" s="2"/>
+      <c r="U6" s="2"/>
+      <c r="V6" s="5"/>
+      <c r="W6" s="3"/>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A7" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="6">
-        <v>0</v>
-      </c>
-      <c r="D7" s="6">
+      <c r="C7" s="13">
+        <v>0</v>
+      </c>
+      <c r="D7" s="13">
         <v>3</v>
       </c>
       <c r="E7" s="13">
         <v>8</v>
       </c>
-      <c r="F7" s="13">
-        <v>3</v>
-      </c>
-      <c r="G7" s="6">
-        <v>0</v>
-      </c>
-      <c r="H7" s="6">
-        <v>0</v>
-      </c>
-      <c r="I7" s="6">
-        <v>0</v>
-      </c>
-      <c r="J7" s="6">
-        <v>0</v>
-      </c>
-      <c r="K7" s="13">
+      <c r="F7" s="14">
+        <v>3</v>
+      </c>
+      <c r="G7" s="13">
+        <v>0</v>
+      </c>
+      <c r="H7" s="13">
+        <v>0</v>
+      </c>
+      <c r="I7" s="13">
+        <v>0</v>
+      </c>
+      <c r="J7" s="13">
+        <v>0</v>
+      </c>
+      <c r="K7" s="14">
         <v>5</v>
       </c>
-      <c r="L7" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="B8" s="2" t="s">
+      <c r="L7" s="13">
+        <v>0</v>
+      </c>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="5"/>
+      <c r="Q7" s="5"/>
+      <c r="R7" s="2"/>
+      <c r="S7" s="2"/>
+      <c r="T7" s="2"/>
+      <c r="U7" s="2"/>
+      <c r="V7" s="5"/>
+      <c r="W7" s="3"/>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A8" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="6">
-        <v>0</v>
-      </c>
-      <c r="D8" s="13">
-        <v>3</v>
-      </c>
-      <c r="E8" s="6">
+      <c r="C8" s="13">
+        <v>0</v>
+      </c>
+      <c r="D8" s="14">
+        <v>3</v>
+      </c>
+      <c r="E8" s="13">
         <v>8</v>
       </c>
-      <c r="F8" s="6">
-        <v>3</v>
-      </c>
-      <c r="G8" s="13">
+      <c r="F8" s="13">
+        <v>3</v>
+      </c>
+      <c r="G8" s="14">
         <v>1</v>
       </c>
-      <c r="H8" s="6">
-        <v>0</v>
-      </c>
-      <c r="I8" s="6">
-        <v>0</v>
-      </c>
-      <c r="J8" s="6">
-        <v>0</v>
-      </c>
-      <c r="K8" s="13">
+      <c r="H8" s="13">
+        <v>0</v>
+      </c>
+      <c r="I8" s="13">
+        <v>0</v>
+      </c>
+      <c r="J8" s="13">
+        <v>0</v>
+      </c>
+      <c r="K8" s="14">
         <v>5</v>
       </c>
-      <c r="L8" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="B9" s="2" t="s">
+      <c r="L8" s="13">
+        <v>0</v>
+      </c>
+      <c r="N8" s="2"/>
+      <c r="O8" s="5"/>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="2"/>
+      <c r="R8" s="5"/>
+      <c r="S8" s="2"/>
+      <c r="T8" s="2"/>
+      <c r="U8" s="2"/>
+      <c r="V8" s="5"/>
+      <c r="W8" s="3"/>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A9" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="6">
-        <v>0</v>
-      </c>
-      <c r="D9" s="13">
-        <v>3</v>
-      </c>
-      <c r="E9" s="6">
+      <c r="C9" s="13">
+        <v>0</v>
+      </c>
+      <c r="D9" s="14">
+        <v>3</v>
+      </c>
+      <c r="E9" s="13">
         <v>8</v>
       </c>
-      <c r="F9" s="6">
-        <v>3</v>
-      </c>
-      <c r="G9" s="6">
+      <c r="F9" s="13">
+        <v>3</v>
+      </c>
+      <c r="G9" s="13">
         <v>1</v>
       </c>
-      <c r="H9" s="13">
+      <c r="H9" s="14">
         <v>6</v>
       </c>
-      <c r="I9" s="6">
-        <v>0</v>
-      </c>
-      <c r="J9" s="6">
-        <v>0</v>
-      </c>
-      <c r="K9" s="13">
+      <c r="I9" s="13">
+        <v>0</v>
+      </c>
+      <c r="J9" s="13">
+        <v>0</v>
+      </c>
+      <c r="K9" s="14">
         <v>5</v>
       </c>
-      <c r="L9" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="B10" s="2" t="s">
+      <c r="L9" s="13">
+        <v>0</v>
+      </c>
+      <c r="N9" s="2"/>
+      <c r="O9" s="5"/>
+      <c r="P9" s="2"/>
+      <c r="Q9" s="2"/>
+      <c r="R9" s="2"/>
+      <c r="S9" s="5"/>
+      <c r="T9" s="2"/>
+      <c r="U9" s="2"/>
+      <c r="V9" s="5"/>
+      <c r="W9" s="3"/>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A10" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="6">
-        <v>0</v>
-      </c>
-      <c r="D10" s="13">
-        <v>3</v>
-      </c>
-      <c r="E10" s="6">
+      <c r="C10" s="13">
+        <v>0</v>
+      </c>
+      <c r="D10" s="14">
+        <v>3</v>
+      </c>
+      <c r="E10" s="13">
         <v>8</v>
       </c>
-      <c r="F10" s="6">
-        <v>3</v>
-      </c>
-      <c r="G10" s="6">
+      <c r="F10" s="13">
+        <v>3</v>
+      </c>
+      <c r="G10" s="13">
         <v>1</v>
       </c>
-      <c r="H10" s="6">
+      <c r="H10" s="13">
         <v>6</v>
       </c>
-      <c r="I10" s="13">
+      <c r="I10" s="14">
         <v>7</v>
       </c>
-      <c r="J10" s="6">
-        <v>0</v>
-      </c>
-      <c r="K10" s="13">
+      <c r="J10" s="13">
+        <v>0</v>
+      </c>
+      <c r="K10" s="14">
         <v>5</v>
       </c>
-      <c r="L10" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="B11" s="2" t="s">
+      <c r="L10" s="13">
+        <v>0</v>
+      </c>
+      <c r="N10" s="2"/>
+      <c r="O10" s="5"/>
+      <c r="P10" s="2"/>
+      <c r="Q10" s="2"/>
+      <c r="R10" s="2"/>
+      <c r="S10" s="2"/>
+      <c r="T10" s="5"/>
+      <c r="U10" s="2"/>
+      <c r="V10" s="5"/>
+      <c r="W10" s="3"/>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A11" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="6">
-        <v>0</v>
-      </c>
-      <c r="D11" s="6">
-        <v>3</v>
-      </c>
-      <c r="E11" s="6">
+      <c r="C11" s="13">
+        <v>0</v>
+      </c>
+      <c r="D11" s="13">
+        <v>3</v>
+      </c>
+      <c r="E11" s="13">
         <v>8</v>
       </c>
-      <c r="F11" s="13">
-        <v>3</v>
-      </c>
-      <c r="G11" s="6">
+      <c r="F11" s="14">
+        <v>3</v>
+      </c>
+      <c r="G11" s="13">
         <v>1</v>
       </c>
-      <c r="H11" s="6">
+      <c r="H11" s="13">
         <v>6</v>
       </c>
-      <c r="I11" s="6">
+      <c r="I11" s="13">
         <v>7</v>
       </c>
-      <c r="J11" s="13">
-        <v>3</v>
-      </c>
-      <c r="K11" s="6">
+      <c r="J11" s="14">
+        <v>3</v>
+      </c>
+      <c r="K11" s="13">
         <v>5</v>
       </c>
-      <c r="L11" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="B12" s="2" t="s">
+      <c r="L11" s="13">
+        <v>0</v>
+      </c>
+      <c r="N11" s="2"/>
+      <c r="O11" s="2"/>
+      <c r="P11" s="2"/>
+      <c r="Q11" s="5"/>
+      <c r="R11" s="2"/>
+      <c r="S11" s="2"/>
+      <c r="T11" s="2"/>
+      <c r="U11" s="5"/>
+      <c r="V11" s="2"/>
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A12" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="B12" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="6">
-        <v>0</v>
-      </c>
-      <c r="D12" s="6">
-        <v>3</v>
-      </c>
-      <c r="E12" s="6">
+      <c r="C12" s="13">
+        <v>0</v>
+      </c>
+      <c r="D12" s="13">
+        <v>3</v>
+      </c>
+      <c r="E12" s="13">
         <v>8</v>
       </c>
-      <c r="F12" s="6">
-        <v>3</v>
-      </c>
-      <c r="G12" s="6">
+      <c r="F12" s="13">
+        <v>3</v>
+      </c>
+      <c r="G12" s="13">
         <v>1</v>
       </c>
-      <c r="H12" s="6">
+      <c r="H12" s="13">
         <v>6</v>
       </c>
-      <c r="I12" s="6">
+      <c r="I12" s="13">
         <v>7</v>
       </c>
-      <c r="J12" s="6">
-        <v>3</v>
-      </c>
-      <c r="K12" s="6">
+      <c r="J12" s="13">
+        <v>3</v>
+      </c>
+      <c r="K12" s="13">
         <v>5</v>
       </c>
       <c r="L12" s="14">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="B13" s="2" t="s">
+      <c r="N12" s="2"/>
+      <c r="O12" s="2"/>
+      <c r="P12" s="2"/>
+      <c r="Q12" s="2"/>
+      <c r="R12" s="2"/>
+      <c r="S12" s="2"/>
+      <c r="T12" s="2"/>
+      <c r="U12" s="2"/>
+      <c r="V12" s="2"/>
+      <c r="W12" s="6"/>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A13" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="6">
-        <v>0</v>
-      </c>
-      <c r="D13" s="6">
-        <v>3</v>
-      </c>
-      <c r="E13" s="6">
+      <c r="C13" s="13">
+        <v>0</v>
+      </c>
+      <c r="D13" s="13">
+        <v>3</v>
+      </c>
+      <c r="E13" s="13">
         <v>8</v>
       </c>
-      <c r="F13" s="6">
-        <v>3</v>
-      </c>
-      <c r="G13" s="6">
+      <c r="F13" s="13">
+        <v>3</v>
+      </c>
+      <c r="G13" s="13">
         <v>1</v>
       </c>
-      <c r="H13" s="6">
+      <c r="H13" s="13">
         <v>6</v>
       </c>
-      <c r="I13" s="6">
+      <c r="I13" s="13">
         <v>7</v>
       </c>
-      <c r="J13" s="6">
-        <v>3</v>
-      </c>
-      <c r="K13" s="6">
+      <c r="J13" s="13">
+        <v>3</v>
+      </c>
+      <c r="K13" s="13">
         <v>5</v>
       </c>
       <c r="L13" s="14">
         <v>3</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B14" s="2" t="s">
+      <c r="N13" s="2"/>
+      <c r="O13" s="2"/>
+      <c r="P13" s="2"/>
+      <c r="Q13" s="2"/>
+      <c r="R13" s="2"/>
+      <c r="S13" s="2"/>
+      <c r="T13" s="2"/>
+      <c r="U13" s="2"/>
+      <c r="V13" s="2"/>
+      <c r="W13" s="6"/>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A14" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="C14" s="6">
-        <v>0</v>
-      </c>
-      <c r="D14" s="6">
-        <v>3</v>
-      </c>
-      <c r="E14" s="6">
+      <c r="C14" s="13">
+        <v>0</v>
+      </c>
+      <c r="D14" s="13">
+        <v>3</v>
+      </c>
+      <c r="E14" s="13">
         <v>8</v>
       </c>
-      <c r="F14" s="6">
-        <v>3</v>
-      </c>
-      <c r="G14" s="6">
+      <c r="F14" s="13">
+        <v>3</v>
+      </c>
+      <c r="G14" s="13">
         <v>1</v>
       </c>
-      <c r="H14" s="6">
+      <c r="H14" s="13">
         <v>6</v>
       </c>
-      <c r="I14" s="6">
+      <c r="I14" s="13">
         <v>7</v>
       </c>
-      <c r="J14" s="6">
-        <v>3</v>
-      </c>
-      <c r="K14" s="6">
+      <c r="J14" s="13">
+        <v>3</v>
+      </c>
+      <c r="K14" s="13">
         <v>5</v>
       </c>
       <c r="L14" s="14">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="B15" s="2" t="s">
+      <c r="N14" s="2"/>
+      <c r="O14" s="2"/>
+      <c r="P14" s="2"/>
+      <c r="Q14" s="2"/>
+      <c r="R14" s="2"/>
+      <c r="S14" s="2"/>
+      <c r="T14" s="2"/>
+      <c r="U14" s="2"/>
+      <c r="V14" s="2"/>
+      <c r="W14" s="6"/>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A15" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="B15" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C15" s="6">
-        <v>0</v>
-      </c>
-      <c r="D15" s="6">
-        <v>3</v>
-      </c>
-      <c r="E15" s="6">
+      <c r="C15" s="13">
+        <v>0</v>
+      </c>
+      <c r="D15" s="13">
+        <v>3</v>
+      </c>
+      <c r="E15" s="13">
         <v>8</v>
       </c>
-      <c r="F15" s="6">
-        <v>3</v>
-      </c>
-      <c r="G15" s="6">
+      <c r="F15" s="13">
+        <v>3</v>
+      </c>
+      <c r="G15" s="13">
         <v>1</v>
       </c>
-      <c r="H15" s="6">
+      <c r="H15" s="13">
         <v>6</v>
       </c>
-      <c r="I15" s="6">
+      <c r="I15" s="13">
         <v>7</v>
       </c>
-      <c r="J15" s="6">
-        <v>3</v>
-      </c>
-      <c r="K15" s="6">
+      <c r="J15" s="13">
+        <v>3</v>
+      </c>
+      <c r="K15" s="13">
         <v>5</v>
       </c>
       <c r="L15" s="14">
         <v>7</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="B16" s="2" t="s">
+      <c r="N15" s="2"/>
+      <c r="O15" s="2"/>
+      <c r="P15" s="2"/>
+      <c r="Q15" s="2"/>
+      <c r="R15" s="2"/>
+      <c r="S15" s="2"/>
+      <c r="T15" s="2"/>
+      <c r="U15" s="2"/>
+      <c r="V15" s="2"/>
+      <c r="W15" s="6"/>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A16" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="B16" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="C16" s="6">
-        <v>0</v>
-      </c>
-      <c r="D16" s="6">
-        <v>3</v>
-      </c>
-      <c r="E16" s="6">
+      <c r="C16" s="13">
+        <v>0</v>
+      </c>
+      <c r="D16" s="13">
+        <v>3</v>
+      </c>
+      <c r="E16" s="13">
         <v>8</v>
       </c>
-      <c r="F16" s="6">
-        <v>3</v>
-      </c>
-      <c r="G16" s="6">
+      <c r="F16" s="13">
+        <v>3</v>
+      </c>
+      <c r="G16" s="13">
         <v>1</v>
       </c>
-      <c r="H16" s="6">
+      <c r="H16" s="13">
         <v>6</v>
       </c>
-      <c r="I16" s="6">
+      <c r="I16" s="13">
         <v>7</v>
       </c>
-      <c r="J16" s="6">
-        <v>3</v>
-      </c>
-      <c r="K16" s="6">
+      <c r="J16" s="13">
+        <v>3</v>
+      </c>
+      <c r="K16" s="13">
         <v>5</v>
       </c>
       <c r="L16" s="14">
         <v>8</v>
       </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="B17" s="9" t="s">
+      <c r="N16" s="2"/>
+      <c r="O16" s="2"/>
+      <c r="P16" s="2"/>
+      <c r="Q16" s="2"/>
+      <c r="R16" s="2"/>
+      <c r="S16" s="2"/>
+      <c r="T16" s="2"/>
+      <c r="U16" s="2"/>
+      <c r="V16" s="2"/>
+      <c r="W16" s="6"/>
+    </row>
+    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A17" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="B17" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="C17" s="10">
-        <v>0</v>
-      </c>
-      <c r="D17" s="10">
-        <v>3</v>
-      </c>
-      <c r="E17" s="10">
+      <c r="C17" s="13">
+        <v>0</v>
+      </c>
+      <c r="D17" s="13">
+        <v>3</v>
+      </c>
+      <c r="E17" s="13">
         <v>8</v>
       </c>
-      <c r="F17" s="10">
-        <v>3</v>
-      </c>
-      <c r="G17" s="10">
+      <c r="F17" s="13">
+        <v>3</v>
+      </c>
+      <c r="G17" s="13">
         <v>1</v>
       </c>
-      <c r="H17" s="10">
+      <c r="H17" s="13">
         <v>6</v>
       </c>
-      <c r="I17" s="10">
+      <c r="I17" s="13">
         <v>7</v>
       </c>
-      <c r="J17" s="10">
-        <v>3</v>
-      </c>
-      <c r="K17" s="10">
+      <c r="J17" s="13">
+        <v>3</v>
+      </c>
+      <c r="K17" s="13">
         <v>5</v>
       </c>
-      <c r="L17" s="15">
-        <v>3</v>
-      </c>
+      <c r="L17" s="14">
+        <v>3</v>
+      </c>
+      <c r="N17" s="4"/>
+      <c r="O17" s="4"/>
+      <c r="P17" s="4"/>
+      <c r="Q17" s="4"/>
+      <c r="R17" s="4"/>
+      <c r="S17" s="4"/>
+      <c r="T17" s="4"/>
+      <c r="U17" s="4"/>
+      <c r="V17" s="4"/>
+      <c r="W17" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:B2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
